--- a/src/test/resources/Data/Data.xlsx
+++ b/src/test/resources/Data/Data.xlsx
@@ -19,7 +19,7 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>Tv</t>
+    <t>Zapato</t>
   </si>
 </sst>
 </file>
